--- a/excel_food/Jedzenie.xlsx
+++ b/excel_food/Jedzenie.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173DED3-1FAE-447A-A276-59D9168799F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DFB018-5847-448E-9DDC-C7DEA02EACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="1260" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Link:</t>
   </si>
@@ -159,6 +160,114 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>SEASONING:</t>
+  </si>
+  <si>
+    <t>➡️PASTA:</t>
+  </si>
+  <si>
+    <t>finely diced Fresh Parsley, to serve (optional)</t>
+  </si>
+  <si>
+    <t>Olive Oil, as needed</t>
+  </si>
+  <si>
+    <t>1 tsp</t>
+  </si>
+  <si>
+    <t>3/4 tsp </t>
+  </si>
+  <si>
+    <t>Smoked Paprika</t>
+  </si>
+  <si>
+    <t>1/2 tsp</t>
+  </si>
+  <si>
+    <t>Black Pepper</t>
+  </si>
+  <si>
+    <t>Dried Oregano</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>1/4 - 1/2 tsp</t>
+  </si>
+  <si>
+    <t>1/4 tsp </t>
+  </si>
+  <si>
+    <t>Dried Thyme</t>
+  </si>
+  <si>
+    <t>Chilli Flakes</t>
+  </si>
+  <si>
+    <t>cloves of Garlic, finely diced</t>
+  </si>
+  <si>
+    <t>medium White Onion, finely diced</t>
+  </si>
+  <si>
+    <t>500g / 1lb </t>
+  </si>
+  <si>
+    <t>Minced/Ground Beef (12% works great)</t>
+  </si>
+  <si>
+    <t>2 tbsp </t>
+  </si>
+  <si>
+    <t>Tomato Puree (Tomato Paste in US)</t>
+  </si>
+  <si>
+    <t>600ml / 2 1/2 cups </t>
+  </si>
+  <si>
+    <t>Beef Stock, warm but not boiling hot</t>
+  </si>
+  <si>
+    <t>500g / 2 cups </t>
+  </si>
+  <si>
+    <t>Tomato Passata</t>
+  </si>
+  <si>
+    <t>180ml / 3/4 cup </t>
+  </si>
+  <si>
+    <t>Double/Heavy Cream, at room temp</t>
+  </si>
+  <si>
+    <t>1 tsp </t>
+  </si>
+  <si>
+    <t>Worcestershire Sauce</t>
+  </si>
+  <si>
+    <t>300g / 10.5oz </t>
+  </si>
+  <si>
+    <t>uncooked Conchiglie Pasta</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/C5Y3zJYIbpA/</t>
+  </si>
+  <si>
+    <t>Add a drizzle of oil to a large pot over medium heat and fry the onion until it begins to soften and turn golden. Add the garlic and fry for a minute longer, then add in the beef. Break it up with your wooden spoon until browned.</t>
+  </si>
+  <si>
+    <t>Stir in the seasoning mix, then stir in the tomato puree and fry for a minute or so. Stir in the stock, passata (swill out with a splash of water), cream and Worcestershire sauce, then stir in the uncooked pasta.</t>
+  </si>
+  <si>
+    <t>Bring to a boil and cook until the sauce has thickened and the pasta is al dente, stirring fairly frequently. If the sauce reduces and thickens up before the pasta is cooked through, just add in a splash of hot water as needed to cook the pasta through.</t>
+  </si>
+  <si>
+    <t>Check for seasoning and adjust with salt, pepper and chilli flakes, then serve up with fresh parsley and enjoy!</t>
   </si>
 </sst>
 </file>
@@ -168,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,6 +311,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,6 +420,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -587,8 +722,8 @@
   </sheetPr>
   <dimension ref="C1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -940,4 +1075,331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20362D78-31F4-405B-AA7A-0F39A481F411}">
+  <dimension ref="C1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="58.5703125" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="6" max="6" width="65.28515625" customWidth="1"/>
+    <col min="7" max="7" width="73.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7">
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="3:7">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="3:7" ht="16.5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="16.5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="16.5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="16.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="16.5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="3:7" ht="16.5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="3:7" ht="16.5">
+      <c r="C13" s="3"/>
+      <c r="D13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="3:7" ht="16.5">
+      <c r="C14" s="3"/>
+      <c r="D14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="3:7" ht="16.5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="3:7" ht="16.5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="3:7" ht="16.5">
+      <c r="C17" s="3"/>
+      <c r="D17" s="16">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="3:7" ht="16.5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="3:7" ht="16.5">
+      <c r="C19" s="6"/>
+      <c r="D19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="3:7" ht="16.5">
+      <c r="C20" s="3"/>
+      <c r="D20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="3:7" ht="16.5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="3:7" ht="16.5">
+      <c r="C22" s="3"/>
+      <c r="D22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="3:7" ht="16.5">
+      <c r="C23" s="3"/>
+      <c r="D23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="3:7" ht="16.5">
+      <c r="C24" s="3"/>
+      <c r="D24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="3:7" ht="16.5">
+      <c r="C25" s="3"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="3:7" ht="16.5">
+      <c r="C26" s="3"/>
+      <c r="E26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="3:7" ht="14.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="3:7" ht="14.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="3:7" ht="14.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="3:7" ht="14.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="3:7" ht="14.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_food/Jedzenie.xlsx
+++ b/excel_food/Jedzenie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DFB018-5847-448E-9DDC-C7DEA02EACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69CC50-E0F2-4EF4-B1E0-0721C6E8260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Link:</t>
   </si>
@@ -30,244 +30,221 @@
     <t>https://www.instagram.com/p/DIWP7ohIO0L/</t>
   </si>
   <si>
-    <t>For the chicken</t>
-  </si>
-  <si>
     <t>400g</t>
   </si>
   <si>
-    <t>chicken mini fillets</t>
-  </si>
-  <si>
-    <t>1 tsp</t>
-  </si>
-  <si>
-    <t>paprika</t>
-  </si>
-  <si>
-    <t>1tsp</t>
-  </si>
-  <si>
-    <t>garlic granules</t>
-  </si>
-  <si>
-    <t>1/2 tsp</t>
-  </si>
-  <si>
-    <t>onion granules</t>
-  </si>
-  <si>
-    <t>pepper to taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 tbsp </t>
-  </si>
-  <si>
-    <t>extra virgin olive oil</t>
-  </si>
-  <si>
-    <t>For the rice</t>
-  </si>
-  <si>
     <t xml:space="preserve">320g </t>
   </si>
   <si>
-    <t>cooked white rice</t>
-  </si>
-  <si>
-    <t>red onion, chopped</t>
-  </si>
-  <si>
-    <t>red bell pepper, chopped</t>
-  </si>
-  <si>
-    <t>medium courgette, chopped</t>
-  </si>
-  <si>
-    <t>tomatoes, peeled and chopped</t>
-  </si>
-  <si>
     <t>25g</t>
   </si>
   <si>
-    <t>old El Paso roasted</t>
-  </si>
-  <si>
-    <t>tomato and pepper fajita</t>
-  </si>
-  <si>
-    <t>seasoning mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1/2 tbsp </t>
-  </si>
-  <si>
-    <t>tomato purée</t>
-  </si>
-  <si>
     <t xml:space="preserve">60ml </t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t xml:space="preserve">60g </t>
   </si>
   <si>
-    <t>grated cheddar and</t>
-  </si>
-  <si>
-    <t>mozzarella cheese mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 tbsp </t>
-  </si>
-  <si>
-    <t>chopped chives</t>
-  </si>
-  <si>
-    <t>mayonnaise</t>
-  </si>
-  <si>
-    <t>sriracha sauce</t>
-  </si>
-  <si>
     <t>edasd</t>
   </si>
   <si>
     <t>fsadas</t>
   </si>
   <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>dsadasd</t>
-  </si>
-  <si>
-    <t>asdasfasd</t>
-  </si>
-  <si>
-    <t>sdfasd</t>
-  </si>
-  <si>
-    <t>dfasdfasdfs</t>
-  </si>
-  <si>
-    <t>Doprawic kurczaka i usmazyc</t>
-  </si>
-  <si>
-    <t>Pokroić kurczaka i warzywka</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>SEASONING:</t>
   </si>
   <si>
     <t>➡️PASTA:</t>
   </si>
   <si>
-    <t>finely diced Fresh Parsley, to serve (optional)</t>
-  </si>
-  <si>
-    <t>Olive Oil, as needed</t>
-  </si>
-  <si>
-    <t>1 tsp</t>
-  </si>
-  <si>
-    <t>3/4 tsp </t>
-  </si>
-  <si>
-    <t>Smoked Paprika</t>
-  </si>
-  <si>
-    <t>1/2 tsp</t>
-  </si>
-  <si>
     <t>Black Pepper</t>
   </si>
   <si>
     <t>Dried Oregano</t>
   </si>
   <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>1/4 - 1/2 tsp</t>
-  </si>
-  <si>
-    <t>1/4 tsp </t>
-  </si>
-  <si>
     <t>Dried Thyme</t>
   </si>
   <si>
     <t>Chilli Flakes</t>
   </si>
   <si>
-    <t>cloves of Garlic, finely diced</t>
-  </si>
-  <si>
-    <t>medium White Onion, finely diced</t>
-  </si>
-  <si>
-    <t>500g / 1lb </t>
-  </si>
-  <si>
-    <t>Minced/Ground Beef (12% works great)</t>
-  </si>
-  <si>
-    <t>2 tbsp </t>
-  </si>
-  <si>
-    <t>Tomato Puree (Tomato Paste in US)</t>
-  </si>
-  <si>
     <t>600ml / 2 1/2 cups </t>
   </si>
   <si>
-    <t>Beef Stock, warm but not boiling hot</t>
-  </si>
-  <si>
     <t>500g / 2 cups </t>
   </si>
   <si>
-    <t>Tomato Passata</t>
-  </si>
-  <si>
     <t>180ml / 3/4 cup </t>
   </si>
   <si>
-    <t>Double/Heavy Cream, at room temp</t>
-  </si>
-  <si>
-    <t>1 tsp </t>
-  </si>
-  <si>
-    <t>Worcestershire Sauce</t>
-  </si>
-  <si>
-    <t>300g / 10.5oz </t>
-  </si>
-  <si>
-    <t>uncooked Conchiglie Pasta</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/p/C5Y3zJYIbpA/</t>
   </si>
   <si>
-    <t>Add a drizzle of oil to a large pot over medium heat and fry the onion until it begins to soften and turn golden. Add the garlic and fry for a minute longer, then add in the beef. Break it up with your wooden spoon until browned.</t>
-  </si>
-  <si>
-    <t>Stir in the seasoning mix, then stir in the tomato puree and fry for a minute or so. Stir in the stock, passata (swill out with a splash of water), cream and Worcestershire sauce, then stir in the uncooked pasta.</t>
-  </si>
-  <si>
-    <t>Bring to a boil and cook until the sauce has thickened and the pasta is al dente, stirring fairly frequently. If the sauce reduces and thickens up before the pasta is cooked through, just add in a splash of hot water as needed to cook the pasta through.</t>
-  </si>
-  <si>
-    <t>Check for seasoning and adjust with salt, pepper and chilli flakes, then serve up with fresh parsley and enjoy!</t>
+    <t>➡️SEASONING:</t>
+  </si>
+  <si>
+    <t>Łyżka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500g </t>
+  </si>
+  <si>
+    <t>Soli</t>
+  </si>
+  <si>
+    <t>Wędzonej papryki</t>
+  </si>
+  <si>
+    <t>Dodaj odrobinę oleju do dużego garnka i podgrzej na średnim ogniu. Smaż cebulę, aż zacznie mięknąć i nabierze złotego koloru. Dodaj czosnek i smaż jeszcze przez minutę, następnie dodaj wołowinę. Rozdziel mięso drewnianą łyżką i smaż, aż się zarumieni.</t>
+  </si>
+  <si>
+    <t>Wymieszaj przyprawy, następnie dodaj koncentrat pomidorowy i smaż przez około minutę. Dodaj bulion, passatę (przepłucz opakowanie odrobiną wody), śmietankę i sos Worcestershire, a następnie wsyp surowy makaron i wszystko dokładnie wymieszaj.</t>
+  </si>
+  <si>
+    <t>Doprowadź do wrzenia i gotuj, aż sos zgęstnieje, a makaron będzie al dente, dość często mieszając. Jeśli sos odparuje i zgęstnieje zanim makaron się ugotuje, po prostu dodaj odrobinę gorącej wody, aby dokończyć gotowanie makaronu.</t>
+  </si>
+  <si>
+    <t>Sprawdź przyprawienie i w razie potrzeby dopraw solą, pieprzem i płatkami chili, następnie podawaj z świeżą natką pietruszki i smacznego!</t>
+  </si>
+  <si>
+    <t>Średnia biała cebula, drobno pokrojona</t>
+  </si>
+  <si>
+    <t>ząbki czosnku, drobno pokrojone</t>
+  </si>
+  <si>
+    <t>Mielona wołowina</t>
+  </si>
+  <si>
+    <t>Koncentrat pomidorowy</t>
+  </si>
+  <si>
+    <t>2 Łyżki</t>
+  </si>
+  <si>
+    <t>Łyżki</t>
+  </si>
+  <si>
+    <t>Łyżeczka</t>
+  </si>
+  <si>
+    <t>Łyżeczki</t>
+  </si>
+  <si>
+    <t>1 Łyżeczka</t>
+  </si>
+  <si>
+    <t>3/4 Łyżeczki</t>
+  </si>
+  <si>
+    <t>1/2 Łyżeczki</t>
+  </si>
+  <si>
+    <t>1/2 Łyżeczki</t>
+  </si>
+  <si>
+    <t>1/4 - 1/2 Łyżeczki</t>
+  </si>
+  <si>
+    <t>1/4 Łyżeczki</t>
+  </si>
+  <si>
+    <t>1 Łyzeczka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300g </t>
+  </si>
+  <si>
+    <t>Wołowy bulion, gorący ale nie gotujący się</t>
+  </si>
+  <si>
+    <t>Passata pomidorowa</t>
+  </si>
+  <si>
+    <t>Śmietanka 30%, temperatura pokojowa</t>
+  </si>
+  <si>
+    <t>Sos Worcestershire</t>
+  </si>
+  <si>
+    <t>Nieugotowany makaron Conchiglie</t>
+  </si>
+  <si>
+    <t>Drobno posiekana świeża pietruszka</t>
+  </si>
+  <si>
+    <t>Oliwa z oliwek</t>
+  </si>
+  <si>
+    <t>Kurczak:</t>
+  </si>
+  <si>
+    <t>filetów z kurczaka</t>
+  </si>
+  <si>
+    <t>1 Łyżeczka</t>
+  </si>
+  <si>
+    <t>1/2 Łyżki</t>
+  </si>
+  <si>
+    <t>1 1/2 Łyżki</t>
+  </si>
+  <si>
+    <t>1 Łyżka</t>
+  </si>
+  <si>
+    <t>papryki (przyprawa)</t>
+  </si>
+  <si>
+    <t>czosnku granulowanego</t>
+  </si>
+  <si>
+    <t>Cebuli granulowanej</t>
+  </si>
+  <si>
+    <t>Pieprz</t>
+  </si>
+  <si>
+    <t>Ryż</t>
+  </si>
+  <si>
+    <t>Ugotowany biały ryż</t>
+  </si>
+  <si>
+    <t>Czerwona cebula, pokrojona</t>
+  </si>
+  <si>
+    <t>Czerwona papryka, posiekana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Średnia cukinia, pokrojona w kostkę</t>
+  </si>
+  <si>
+    <t>Pomidory obrane i pokrojone w kostkę</t>
+  </si>
+  <si>
+    <t>Stara mieszanka przypraw do fajitas z pieczonymi pomidorami i papryką El Paso</t>
+  </si>
+  <si>
+    <t>Przecier pomidorowy</t>
+  </si>
+  <si>
+    <t>Wody</t>
+  </si>
+  <si>
+    <t>Starty cheddar i mieszanka sera mozzarella</t>
+  </si>
+  <si>
+    <t>Posiekany szczypiorek</t>
+  </si>
+  <si>
+    <t>Majonezu</t>
+  </si>
+  <si>
+    <t>Sos sriracha</t>
   </si>
 </sst>
 </file>
@@ -277,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -318,6 +295,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -396,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,11 +406,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -702,12 +691,12 @@
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -720,24 +709,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C1:G36"/>
+  <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="4" width="7" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" customWidth="1"/>
     <col min="7" max="7" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15.75" customHeight="1">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1">
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="3:7" ht="12.75">
+    <row r="2" spans="2:7" ht="12.75">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,297 +736,283 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="3:7" ht="15.75" customHeight="1">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1">
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="3:7" ht="15.75" customHeight="1">
+    <row r="4" spans="2:7" ht="15.75" customHeight="1">
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="3:7" ht="15.75" customHeight="1">
+    <row r="5" spans="2:7" ht="15.75" customHeight="1">
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="3:7" ht="12.75">
+    <row r="6" spans="2:7" ht="12.75">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:7" ht="12.75">
+    <row r="7" spans="2:7" ht="12.75">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="14.25">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" ht="12.75">
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="14.25">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="14.25">
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="14.25">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" ht="14.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="14.25">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" ht="14.25">
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="3:7" ht="14.25">
+    <row r="12" spans="2:7" ht="14.25">
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>10</v>
+      <c r="D12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="3:7" ht="14.25">
+    <row r="13" spans="2:7" ht="14.25">
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
+      <c r="D13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" ht="14.25">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" ht="14.25">
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="3:7" ht="14.25">
+    <row r="15" spans="2:7" ht="14.25">
+      <c r="B15" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="14.25">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" ht="14.25">
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="14.25">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.25">
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="3:7" ht="14.25">
+    <row r="18" spans="2:7" ht="14.25">
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>17</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="3:7" ht="14.25">
+    <row r="19" spans="2:7" ht="14.25">
       <c r="C19" s="6"/>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25">
+      <c r="B20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7">
         <v>0.5</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="14.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>19</v>
+      <c r="E20" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="3:7" ht="14.25">
+    <row r="21" spans="2:7" ht="28.5">
+      <c r="B21" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="3:7" ht="14.25">
+    <row r="22" spans="2:7" ht="14.25">
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>22</v>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="3:7" ht="14.25">
+    <row r="23" spans="2:7" ht="14.25">
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
-        <v>23</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="3:7" ht="14.25">
+    <row r="24" spans="2:7" ht="14.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="3:7" ht="14.25">
+    <row r="25" spans="2:7" ht="14.25">
       <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="3:7" ht="14.25">
+    <row r="26" spans="2:7" ht="14.25">
       <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>28</v>
+      <c r="D26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="3:7" ht="14.25">
+    <row r="27" spans="2:7" ht="14.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="3:7" ht="14.25">
+    <row r="28" spans="2:7" ht="28.5">
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4" t="s">
-        <v>31</v>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="3:7" ht="14.25">
+    <row r="29" spans="2:7" ht="14.25">
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="3:7" ht="14.25">
+    <row r="30" spans="2:7" ht="14.25">
       <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>34</v>
+      <c r="D30" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="3:7" ht="14.25">
+    <row r="31" spans="2:7" ht="14.25">
       <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>35</v>
+      <c r="D31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="3:7" ht="12.75">
+    <row r="32" spans="2:7" ht="14.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
@@ -1079,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20362D78-31F4-405B-AA7A-0F39A481F411}">
-  <dimension ref="C1:G35"/>
+  <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1090,288 +1066,301 @@
     <col min="4" max="4" width="58.5703125" customWidth="1"/>
     <col min="5" max="5" width="61" customWidth="1"/>
     <col min="6" max="6" width="65.28515625" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" customWidth="1"/>
+    <col min="7" max="7" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7">
+    <row r="1" spans="2:7">
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="3:7">
+    <row r="2" spans="2:7">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="2:7">
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="2:7">
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="2:7">
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="2:7">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:7" ht="16.5">
+    <row r="7" spans="2:7">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="16.5">
+      <c r="G7" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5">
       <c r="C8" s="3"/>
       <c r="D8" s="13" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="16.5">
+      <c r="G8" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5">
       <c r="C9" s="3"/>
       <c r="D9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="16.5">
+      <c r="G9" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5">
       <c r="C10" s="3"/>
       <c r="D10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="16.5">
+      <c r="G10" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5">
+      <c r="B11" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="3:7" ht="16.5">
+    <row r="12" spans="2:7" ht="16.5">
+      <c r="B12" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="3:7" ht="16.5">
+    <row r="13" spans="2:7" ht="16.5">
       <c r="C13" s="3"/>
       <c r="D13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="3:7" ht="16.5">
+    <row r="14" spans="2:7" ht="16.5">
       <c r="C14" s="3"/>
       <c r="D14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="3:7" ht="16.5">
+    <row r="15" spans="2:7" ht="16.5">
       <c r="C15" s="3"/>
       <c r="D15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="3:7" ht="16.5">
+    <row r="16" spans="2:7" ht="16.5">
+      <c r="B16" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="3:7" ht="16.5">
+    <row r="17" spans="2:7" ht="16.5">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="16">
-        <v>3</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="3:7" ht="16.5">
+    <row r="18" spans="2:7" ht="16.5">
       <c r="C18" s="3"/>
-      <c r="D18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
+      <c r="D18" s="16">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="3:7" ht="16.5">
+    <row r="19" spans="2:7" ht="16.5">
       <c r="C19" s="6"/>
       <c r="D19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>66</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="3:7" ht="16.5">
+    <row r="20" spans="2:7" ht="16.5">
       <c r="C20" s="3"/>
       <c r="D20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="3:7" ht="16.5">
+    <row r="21" spans="2:7" ht="16.5">
       <c r="C21" s="3"/>
       <c r="D21" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="3:7" ht="16.5">
+    <row r="22" spans="2:7" ht="16.5">
       <c r="C22" s="3"/>
       <c r="D22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="3:7" ht="16.5">
+    <row r="23" spans="2:7" ht="16.5">
       <c r="C23" s="3"/>
       <c r="D23" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="3:7" ht="16.5">
+    <row r="24" spans="2:7" ht="16.5">
       <c r="C24" s="3"/>
       <c r="D24" s="14" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="3:7" ht="16.5">
+    <row r="25" spans="2:7" ht="16.5">
       <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="3:7" ht="16.5">
+    <row r="26" spans="2:7" ht="16.5">
       <c r="C26" s="3"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="3:7" ht="14.25">
+    <row r="27" spans="2:7" ht="16.5">
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="3:7" ht="14.25">
+    <row r="28" spans="2:7" ht="14.25">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="3:7" ht="14.25">
+    <row r="29" spans="2:7" ht="14.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="3:7" ht="14.25">
+    <row r="30" spans="2:7" ht="14.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="5"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="3:7" ht="14.25">
+    <row r="31" spans="2:7" ht="14.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="2:7">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>

--- a/excel_food/Jedzenie.xlsx
+++ b/excel_food/Jedzenie.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69CC50-E0F2-4EF4-B1E0-0721C6E8260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69761C2-0AAF-43DE-8EBB-BCBEB1553A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dane" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>Link:</t>
   </si>
@@ -54,9 +55,6 @@
     <t>SEASONING:</t>
   </si>
   <si>
-    <t>➡️PASTA:</t>
-  </si>
-  <si>
     <t>Black Pepper</t>
   </si>
   <si>
@@ -79,9 +77,6 @@
   </si>
   <si>
     <t>https://www.instagram.com/p/C5Y3zJYIbpA/</t>
-  </si>
-  <si>
-    <t>➡️SEASONING:</t>
   </si>
   <si>
     <t>Łyżka</t>
@@ -245,6 +240,84 @@
   </si>
   <si>
     <t>Sos sriracha</t>
+  </si>
+  <si>
+    <t>➡️Przyprawy:</t>
+  </si>
+  <si>
+    <t>➡️Makaron:</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/?ref=saved&amp;v=3031449890460469</t>
+  </si>
+  <si>
+    <t>Przygotowanie: \/</t>
+  </si>
+  <si>
+    <t>Papryki</t>
+  </si>
+  <si>
+    <t>2 Łyżeczki</t>
+  </si>
+  <si>
+    <t>2 Łyżki</t>
+  </si>
+  <si>
+    <t>Oliwy</t>
+  </si>
+  <si>
+    <t>Papryke pokroić i wyłożyć na blache do pieczenia. Włożyć do piekarnika na 30min 180 stopni</t>
+  </si>
+  <si>
+    <t>Oleju</t>
+  </si>
+  <si>
+    <t>Cebula żółta</t>
+  </si>
+  <si>
+    <t>Kumin (Kmnin rzymski)</t>
+  </si>
+  <si>
+    <t>400ml</t>
+  </si>
+  <si>
+    <t>Pomidory krojone z puszki</t>
+  </si>
+  <si>
+    <t>1/2 szklanki</t>
+  </si>
+  <si>
+    <t>Pomidorów suszonych</t>
+  </si>
+  <si>
+    <t>Czerwonej soczewicy</t>
+  </si>
+  <si>
+    <t>1 1/2 litra</t>
+  </si>
+  <si>
+    <t>Bulionu warzywnego</t>
+  </si>
+  <si>
+    <t>Cebule pokroić i usmażyć w garnku przez 10 min. Dodac Kumin i wędzoną papryke i wymieszać</t>
+  </si>
+  <si>
+    <t>Dodać pomidory krojone, pomidory suszone, soczewice i wlać bulion. Gotować przez kolejne 10 min.</t>
+  </si>
+  <si>
+    <t>Octu balsamicznego</t>
+  </si>
+  <si>
+    <t>Pieprzu</t>
+  </si>
+  <si>
+    <t>Grzanki</t>
+  </si>
+  <si>
+    <t>Papryke obrać ze skórki, dorzucić do zupy i zblędować na głatko. Dodać ocet, pieprz i dobrze wymieszać.</t>
+  </si>
+  <si>
+    <t>Podawać z grzankami.</t>
   </si>
 </sst>
 </file>
@@ -381,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,11 +483,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -711,7 +785,7 @@
   </sheetPr>
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -767,7 +841,7 @@
     <row r="9" spans="2:7" ht="14.25">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
@@ -778,40 +852,40 @@
         <v>2</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="C11" s="3"/>
-      <c r="D11" s="17" t="s">
-        <v>53</v>
+      <c r="D11" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="C12" s="3"/>
-      <c r="D12" s="17" t="s">
-        <v>53</v>
+      <c r="D12" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="C13" s="3"/>
-      <c r="D13" s="17" t="s">
-        <v>38</v>
+      <c r="D13" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
@@ -820,28 +894,28 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="14.25">
-      <c r="B15" s="17" t="s">
-        <v>34</v>
+      <c r="B15" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="17" t="s">
-        <v>54</v>
+      <c r="D15" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="14.25">
-      <c r="B16" s="17" t="s">
-        <v>35</v>
+      <c r="B16" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -852,7 +926,7 @@
     <row r="17" spans="2:7" ht="14.25">
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
@@ -863,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
@@ -874,35 +948,35 @@
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" ht="14.25">
-      <c r="B20" s="17" t="s">
-        <v>20</v>
+      <c r="B20" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="7">
         <v>0.5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7" ht="28.5">
-      <c r="B21" s="17" t="s">
-        <v>33</v>
+      <c r="B21" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>65</v>
+      <c r="E21" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -913,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -924,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -945,11 +1019,11 @@
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="C26" s="3"/>
-      <c r="D26" s="17" t="s">
-        <v>55</v>
+      <c r="D26" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -960,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -970,8 +1044,8 @@
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>70</v>
+      <c r="E28" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -985,33 +1059,33 @@
     </row>
     <row r="30" spans="2:7" ht="14.25">
       <c r="C30" s="3"/>
-      <c r="D30" s="17" t="s">
-        <v>56</v>
+      <c r="D30" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="14.25">
       <c r="C31" s="3"/>
-      <c r="D31" s="17" t="s">
-        <v>54</v>
+      <c r="D31" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="14.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="17" t="s">
-        <v>56</v>
+      <c r="D32" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1057,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20362D78-31F4-405B-AA7A-0F39A481F411}">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B18"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1077,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -1102,8 +1176,8 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="17" t="s">
-        <v>24</v>
+      <c r="G7" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.5">
@@ -1113,57 +1187,57 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="17" t="s">
-        <v>25</v>
+      <c r="G8" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16.5">
       <c r="C9" s="3"/>
       <c r="D9" s="14" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="17" t="s">
-        <v>26</v>
+      <c r="G9" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5">
       <c r="C10" s="3"/>
       <c r="D10" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="17" t="s">
-        <v>27</v>
+      <c r="G10" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5">
-      <c r="B11" s="17" t="s">
-        <v>34</v>
+      <c r="B11" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" ht="16.5">
-      <c r="B12" s="17" t="s">
-        <v>35</v>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="11"/>
@@ -1171,10 +1245,10 @@
     <row r="13" spans="2:7" ht="16.5">
       <c r="C13" s="3"/>
       <c r="D13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="11"/>
@@ -1182,10 +1256,10 @@
     <row r="14" spans="2:7" ht="16.5">
       <c r="C14" s="3"/>
       <c r="D14" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
@@ -1193,21 +1267,21 @@
     <row r="15" spans="2:7" ht="16.5">
       <c r="C15" s="3"/>
       <c r="D15" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="16.5">
-      <c r="B16" s="17" t="s">
-        <v>20</v>
+      <c r="B16" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="14" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -1215,25 +1289,25 @@
     </row>
     <row r="17" spans="2:7" ht="16.5">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" ht="16.5">
       <c r="C18" s="3"/>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>3</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="11"/>
@@ -1241,10 +1315,10 @@
     <row r="19" spans="2:7" ht="16.5">
       <c r="C19" s="6"/>
       <c r="D19" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
@@ -1252,10 +1326,10 @@
     <row r="20" spans="2:7" ht="16.5">
       <c r="C20" s="3"/>
       <c r="D20" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="12"/>
@@ -1263,10 +1337,10 @@
     <row r="21" spans="2:7" ht="16.5">
       <c r="C21" s="3"/>
       <c r="D21" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1274,10 +1348,10 @@
     <row r="22" spans="2:7" ht="16.5">
       <c r="C22" s="3"/>
       <c r="D22" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1285,10 +1359,10 @@
     <row r="23" spans="2:7" ht="16.5">
       <c r="C23" s="3"/>
       <c r="D23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1296,10 +1370,10 @@
     <row r="24" spans="2:7" ht="16.5">
       <c r="C24" s="3"/>
       <c r="D24" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1307,10 +1381,10 @@
     <row r="25" spans="2:7" ht="16.5">
       <c r="C25" s="3"/>
       <c r="D25" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1319,7 +1393,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1327,7 +1401,7 @@
     <row r="27" spans="2:7" ht="16.5">
       <c r="C27" s="3"/>
       <c r="E27" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1391,4 +1465,303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D05961-9EE9-4448-8408-65B60C80465C}">
+  <dimension ref="B1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" customWidth="1"/>
+    <col min="7" max="7" width="76.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="14">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5">
+      <c r="B11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5">
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5">
+      <c r="C13" s="3"/>
+      <c r="D13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5">
+      <c r="C14" s="3"/>
+      <c r="D14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.5">
+      <c r="B16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5">
+      <c r="C19" s="6"/>
+      <c r="D19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.5">
+      <c r="C20" s="3"/>
+      <c r="D20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5">
+      <c r="C22" s="3"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.5">
+      <c r="C23" s="3"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.5">
+      <c r="C24" s="3"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.5">
+      <c r="C25" s="3"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.5">
+      <c r="C26" s="3"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.5">
+      <c r="C27" s="3"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" ht="14.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" ht="14.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" ht="14.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_food/Jedzenie.xlsx
+++ b/excel_food/Jedzenie.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69761C2-0AAF-43DE-8EBB-BCBEB1553A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68254650-3D56-421C-AEF7-A0E4B7A2C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
     <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
+    <sheet name="Arkusz5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>Link:</t>
   </si>
@@ -53,18 +54,6 @@
   </si>
   <si>
     <t>SEASONING:</t>
-  </si>
-  <si>
-    <t>Black Pepper</t>
-  </si>
-  <si>
-    <t>Dried Oregano</t>
-  </si>
-  <si>
-    <t>Dried Thyme</t>
-  </si>
-  <si>
-    <t>Chilli Flakes</t>
   </si>
   <si>
     <t>600ml / 2 1/2 cups </t>
@@ -318,6 +307,123 @@
   </si>
   <si>
     <t>Podawać z grzankami.</t>
+  </si>
+  <si>
+    <t>Suszone oregano</t>
+  </si>
+  <si>
+    <t>Czarny pieprz</t>
+  </si>
+  <si>
+    <t>Płatki czili</t>
+  </si>
+  <si>
+    <t>Suszony tymianek</t>
+  </si>
+  <si>
+    <t>Kurczaka pokroić na kawałki i doprawić papryką, czosnkiem,cebulą granulowaną i pieprzem. Usmażyć i wyciagnac na talerz.</t>
+  </si>
+  <si>
+    <t>Pokroić cebule, papryke, cukinie i pomidory.</t>
+  </si>
+  <si>
+    <t>Na patelni, na której był smazony kurczak, usmażyć pokrojone warzywa. Przesmażyć je chwile i dodać przecier pomidorowy.</t>
+  </si>
+  <si>
+    <t>Doprawić przyprawami, dolać wody i wymieszać. Dodac kurczaka i po chwili ryż. Dobrze wymieszać.</t>
+  </si>
+  <si>
+    <t>Wymieszać majonez z sosem sriracha.</t>
+  </si>
+  <si>
+    <t>Potrawe posypać serem i polać sosem.</t>
+  </si>
+  <si>
+    <t>https://www.kwestiasmaku.com/przepis/makaron-azjatycki-z-pikantna-wolowina</t>
+  </si>
+  <si>
+    <t>Makaron ugotować zgodnie z instrukcją na opakowaniu, odcedzić.</t>
+  </si>
+  <si>
+    <t>Rozgrzać wok (lub dużą patelnię) z 1 łyżką oleju. Partiami wkładać mięso i obsmażyć na większym ogniu.</t>
+  </si>
+  <si>
+    <t>Dodać drugą łyżkę oleju oraz posiekane warzywa: pokrojoną czerwoną cebulę, posiekaną kapustę oraz pokrojoną na paseczki czerwoną paprykę. Smażyć co chwilę mieszając przez ok. 4 minuty, aż warzywa zmiękną.</t>
+  </si>
+  <si>
+    <t>Dodać drobno starty imbir oraz czosnek, wymieszać.</t>
+  </si>
+  <si>
+    <t>Wymieszać składniki sosu: sos sojowy, miód, sos chili, ocet ryżowy i wlać do woka. Wymieszać i smażyć przez ok. 2 minuty.</t>
+  </si>
+  <si>
+    <t>Dodać makaron i chwilę razem podsmażać.</t>
+  </si>
+  <si>
+    <t>Na koniec posypać posiekanym szczypiorkiem oraz sezamem (lub skropić olejem sezamowym).</t>
+  </si>
+  <si>
+    <t>dymka lub szczypiorek</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>pszennego makaronu orientalnego np. Mie, Chow Mein</t>
+  </si>
+  <si>
+    <t>oleju</t>
+  </si>
+  <si>
+    <t>300 g </t>
+  </si>
+  <si>
+    <t>mielonej wołowiny</t>
+  </si>
+  <si>
+    <t>czerwona cebula</t>
+  </si>
+  <si>
+    <t>200 g</t>
+  </si>
+  <si>
+    <t>kapusty młodej lub pekińskiej</t>
+  </si>
+  <si>
+    <t>czerwonej papryki</t>
+  </si>
+  <si>
+    <t>ząbki czosnku</t>
+  </si>
+  <si>
+    <t>1 łyżka</t>
+  </si>
+  <si>
+    <t>startego imbiru</t>
+  </si>
+  <si>
+    <t>nasion sezamu</t>
+  </si>
+  <si>
+    <t>Sos</t>
+  </si>
+  <si>
+    <t>40 ml</t>
+  </si>
+  <si>
+    <t>sosu sojowego</t>
+  </si>
+  <si>
+    <t>4 łyżki </t>
+  </si>
+  <si>
+    <t>miodu</t>
+  </si>
+  <si>
+    <t>słodko - pikantnego sosu chili lub słodkiego sosu chili</t>
+  </si>
+  <si>
+    <t>octu ryżowego</t>
   </si>
 </sst>
 </file>
@@ -327,7 +433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -390,6 +496,20 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF323232"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="-apple-system"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -405,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -450,11 +570,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -466,7 +672,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,11 +689,50 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -783,10 +1027,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -799,324 +1043,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G1" s="8"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="2:7" ht="12.75">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G3" s="8"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G4" s="8"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G5" s="8"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" ht="12.75">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="2:7" ht="12.75">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" ht="38.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="12.75">
       <c r="C8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="2:7" ht="14.25">
+      <c r="G8" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="38.25">
       <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="2:7" ht="14.25">
+      <c r="G9" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="25.5">
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>50</v>
+      <c r="E10" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="10" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="C11" s="3"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="C12" s="3"/>
-      <c r="D12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>56</v>
+      <c r="D12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="C13" s="3"/>
-      <c r="D13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>57</v>
+      <c r="D13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
+      <c r="D14" s="20"/>
+      <c r="E14" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="14.25">
-      <c r="B15" s="16" t="s">
-        <v>32</v>
+      <c r="B15" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>48</v>
       </c>
+      <c r="E15" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="14.25">
-      <c r="B16" s="16" t="s">
-        <v>33</v>
+      <c r="B16" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" ht="14.25">
       <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="D17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="14.25">
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>60</v>
+      <c r="E18" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="14.25">
       <c r="C19" s="6"/>
-      <c r="D19" s="3">
+      <c r="D19" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>61</v>
+      <c r="E19" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" ht="14.25">
-      <c r="B20" s="16" t="s">
-        <v>18</v>
+      <c r="B20" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="7">
+      <c r="D20" s="26">
         <v>0.5</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>62</v>
+      <c r="E20" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="28.5">
-      <c r="B21" s="16" t="s">
-        <v>31</v>
+      <c r="B21" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="D21" s="20">
         <v>1</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>63</v>
+      <c r="E21" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="14.25">
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="D22" s="20">
         <v>2</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>64</v>
+      <c r="E22" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="14.25">
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>65</v>
+      <c r="E23" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="14.25">
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="C26" s="3"/>
-      <c r="D26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>66</v>
+      <c r="D26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>67</v>
+      <c r="E27" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="28.5">
       <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>68</v>
+      <c r="E28" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="14.25">
       <c r="C30" s="3"/>
-      <c r="D30" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>69</v>
+      <c r="D30" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="14.25">
       <c r="C31" s="3"/>
-      <c r="D31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>70</v>
+      <c r="D31" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="14.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>71</v>
+      <c r="D32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="3:7" ht="12.75">
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="3:7" ht="12.75">
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="3:7" ht="12.75">
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="3:7" ht="12.75">
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D37" s="29"/>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D38" s="29"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D39" s="29"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D40" s="29"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D41" s="29"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D42" s="29"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D43" s="29"/>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D44" s="29"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D45" s="29"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D46" s="29"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D47" s="29"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D48" s="29"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D49" s="29"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1132,7 +1446,7 @@
   <dimension ref="B1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1144,264 +1458,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="G1" s="8"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:7">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="G5" s="8"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="16" t="s">
-        <v>22</v>
+      <c r="G7" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.5">
       <c r="C8" s="3"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="16" t="s">
-        <v>23</v>
+      <c r="G8" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16.5">
       <c r="C9" s="3"/>
-      <c r="D9" s="14" t="s">
-        <v>72</v>
+      <c r="D9" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="16" t="s">
-        <v>24</v>
+      <c r="G9" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5">
       <c r="C10" s="3"/>
-      <c r="D10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>20</v>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="16" t="s">
-        <v>25</v>
+      <c r="G10" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5">
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="2:7" ht="16.5">
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>11</v>
+      <c r="E12" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="16.5">
       <c r="C13" s="3"/>
-      <c r="D13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>10</v>
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="16.5">
       <c r="C14" s="3"/>
-      <c r="D14" s="14" t="s">
-        <v>38</v>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="16.5">
       <c r="C15" s="3"/>
-      <c r="D15" s="14" t="s">
-        <v>39</v>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="16.5">
-      <c r="B16" s="16" t="s">
-        <v>18</v>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="14" t="s">
-        <v>73</v>
+      <c r="D16" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" ht="16.5">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="16.5">
       <c r="C18" s="3"/>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>3</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>27</v>
+      <c r="E18" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="16.5">
       <c r="C19" s="6"/>
-      <c r="D19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>28</v>
+      <c r="D19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" ht="16.5">
       <c r="C20" s="3"/>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>29</v>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="16.5">
       <c r="C21" s="3"/>
-      <c r="D21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>42</v>
+      <c r="D21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
       <c r="C22" s="3"/>
-      <c r="D22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>43</v>
+      <c r="D22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="16.5">
       <c r="C23" s="3"/>
-      <c r="D23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>44</v>
+      <c r="D23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="16.5">
       <c r="C24" s="3"/>
-      <c r="D24" s="14" t="s">
-        <v>40</v>
+      <c r="D24" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="16.5">
       <c r="C25" s="3"/>
-      <c r="D25" s="14" t="s">
-        <v>41</v>
+      <c r="D25" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="16.5">
       <c r="C26" s="3"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
-        <v>47</v>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="16.5">
       <c r="C27" s="3"/>
-      <c r="E27" s="14" t="s">
-        <v>48</v>
+      <c r="E27" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1469,9 +1783,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D05961-9EE9-4448-8408-65B60C80465C}">
-  <dimension ref="B1:G31"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1483,34 +1797,21 @@
     <col min="7" max="7" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="G1" s="18"/>
-    </row>
     <row r="2" spans="2:7">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="G5" s="18"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="19" t="s">
-        <v>75</v>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1518,218 +1819,218 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="16" t="s">
-        <v>80</v>
+      <c r="G7" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.5">
       <c r="C8" s="3"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="16" t="s">
-        <v>91</v>
+      <c r="G8" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16.5">
       <c r="C9" s="3"/>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="16" t="s">
-        <v>92</v>
+      <c r="G9" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5">
       <c r="C10" s="3"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5">
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5">
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="16.5">
-      <c r="B11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="16.5">
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="16.5">
       <c r="C13" s="3"/>
-      <c r="D13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>83</v>
+      <c r="D13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="16.5">
       <c r="C14" s="3"/>
-      <c r="D14" s="14" t="s">
-        <v>36</v>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="16.5">
       <c r="C15" s="3"/>
-      <c r="D15" s="14" t="s">
-        <v>84</v>
+      <c r="D15" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="16.5">
-      <c r="B16" s="16" t="s">
-        <v>18</v>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="14" t="s">
-        <v>86</v>
+      <c r="D16" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" ht="16.5">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="14" t="s">
-        <v>86</v>
+      <c r="D17" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="16.5">
       <c r="C18" s="3"/>
-      <c r="D18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>90</v>
+      <c r="D18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="16.5">
       <c r="C19" s="6"/>
-      <c r="D19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>93</v>
+      <c r="D19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" ht="16.5">
       <c r="C20" s="3"/>
-      <c r="D20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>94</v>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="16.5">
       <c r="C21" s="3"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
-        <v>95</v>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
       <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="16.5">
       <c r="C23" s="3"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="16.5">
       <c r="C24" s="3"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="16.5">
       <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="16.5">
       <c r="C26" s="3"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="16.5">
       <c r="C27" s="3"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
@@ -1764,4 +2065,361 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5DFE2-6F8B-4134-98CB-00E93765900B}">
+  <dimension ref="B1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="5" max="5" width="82.5703125" customWidth="1"/>
+    <col min="6" max="7" width="53.85546875" customWidth="1"/>
+    <col min="8" max="8" width="111.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" ht="28.5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="42.75">
+      <c r="C8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="71.25">
+      <c r="C9" s="15"/>
+      <c r="D9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="14.25">
+      <c r="C10" s="15"/>
+      <c r="D10" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="42.75">
+      <c r="C11" s="15"/>
+      <c r="D11" s="37">
+        <v>2</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="14.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="28.5">
+      <c r="C13" s="15"/>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.25">
+      <c r="C14" s="15"/>
+      <c r="D14" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" ht="14.25">
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" ht="14.25">
+      <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="22">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25">
+      <c r="C19" s="39"/>
+      <c r="D19" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25">
+      <c r="B20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.25">
+      <c r="B21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.25">
+      <c r="C22" s="15"/>
+      <c r="D22" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="14.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" ht="14.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.25">
+      <c r="C26" s="15"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" ht="14.25">
+      <c r="C27" s="15"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25">
+      <c r="C28" s="15"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" ht="14.25">
+      <c r="C29" s="15"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" ht="14.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" ht="14.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" ht="14.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="3"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="3"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="3"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="3"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="D37" s="29"/>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="D38" s="29"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="D39" s="29"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="D40" s="29"/>
+      <c r="E40" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel_food/Jedzenie.xlsx
+++ b/excel_food/Jedzenie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68254650-3D56-421C-AEF7-A0E4B7A2C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D77BBC-C1BF-41F7-8126-E810D32B49AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
     <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
     <sheet name="Arkusz5" sheetId="5" r:id="rId5"/>
+    <sheet name="Arkusz6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
   <si>
     <t>Link:</t>
   </si>
@@ -424,6 +425,48 @@
   </si>
   <si>
     <t>octu ryżowego</t>
+  </si>
+  <si>
+    <t>Boczek</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/reel/DE0MNaCseF6/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA==</t>
+  </si>
+  <si>
+    <t>Pomidory suszone</t>
+  </si>
+  <si>
+    <t>0,5 Litra</t>
+  </si>
+  <si>
+    <t>Śmietanka 30%</t>
+  </si>
+  <si>
+    <t>Makaron penne, rigatoni,</t>
+  </si>
+  <si>
+    <t>Bazylia</t>
+  </si>
+  <si>
+    <t>Parmezan</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
+    <t>Boczek pokroić na drobne kawałki i podsmażyć. Ccebula drobno pokroić i wrzucić do boczu aby się razem podsmażyły.</t>
+  </si>
+  <si>
+    <t>Pomidory suszone pokroić i również dorzucić na patelnie. Dodać przyprawy, przecier i wymieszać.</t>
+  </si>
+  <si>
+    <t>Dolać bulion i śmietanke. Kiedy się zagotuje dodać makaron żeby ugotował się w tym sosie.</t>
+  </si>
+  <si>
+    <t>Po ugotowaniu makaronu dodać parmezan i bazylie wedle uznania.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -689,8 +732,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,7 +1068,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G50"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection sqref="A1:J40"/>
@@ -1042,33 +1083,20 @@
     <col min="7" max="7" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G1" s="16"/>
-    </row>
     <row r="2" spans="2:7" ht="12.75">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" ht="12.75">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" ht="38.25">
       <c r="C7" s="3"/>
@@ -1088,10 +1116,10 @@
     </row>
     <row r="9" spans="2:7" ht="38.25">
       <c r="C9" s="3"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="3"/>
       <c r="G9" s="10" t="s">
         <v>100</v>
@@ -1099,10 +1127,10 @@
     </row>
     <row r="10" spans="2:7" ht="25.5">
       <c r="C10" s="3"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="3"/>
@@ -1112,10 +1140,10 @@
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="C11" s="3"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="3"/>
@@ -1125,10 +1153,10 @@
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="C12" s="3"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="3"/>
@@ -1138,10 +1166,10 @@
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="C13" s="3"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="3"/>
@@ -1149,8 +1177,8 @@
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="C14" s="3"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="3"/>
@@ -1161,10 +1189,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="3"/>
@@ -1175,26 +1203,26 @@
         <v>29</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="3"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" ht="14.25">
       <c r="C17" s="3"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="3"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="14.25">
       <c r="C18" s="3"/>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="3"/>
@@ -1202,10 +1230,10 @@
     </row>
     <row r="19" spans="2:7" ht="14.25">
       <c r="C19" s="6"/>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <v>1</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="3"/>
@@ -1216,10 +1244,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>0.5</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="3"/>
@@ -1230,10 +1258,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>1</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="3"/>
@@ -1241,10 +1269,10 @@
     </row>
     <row r="22" spans="2:7" ht="14.25">
       <c r="C22" s="3"/>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>2</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F22" s="3"/>
@@ -1252,10 +1280,10 @@
     </row>
     <row r="23" spans="2:7" ht="14.25">
       <c r="C23" s="3"/>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="3"/>
@@ -1263,24 +1291,24 @@
     </row>
     <row r="24" spans="2:7" ht="14.25">
       <c r="C24" s="3"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="C25" s="3"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="C26" s="3"/>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="19" t="s">
         <v>62</v>
       </c>
       <c r="F26" s="3"/>
@@ -1288,10 +1316,10 @@
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="C27" s="3"/>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F27" s="3"/>
@@ -1299,10 +1327,10 @@
     </row>
     <row r="28" spans="2:7" ht="28.5">
       <c r="C28" s="3"/>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="3"/>
@@ -1310,17 +1338,17 @@
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="C29" s="3"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="14.25">
       <c r="C30" s="3"/>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="3"/>
@@ -1328,10 +1356,10 @@
     </row>
     <row r="31" spans="2:7" ht="14.25">
       <c r="C31" s="3"/>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="3"/>
@@ -1339,10 +1367,10 @@
     </row>
     <row r="32" spans="2:7" ht="14.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="19" t="s">
         <v>67</v>
       </c>
       <c r="F32" s="3"/>
@@ -1350,87 +1378,87 @@
     </row>
     <row r="33" spans="3:7" ht="12.75">
       <c r="C33" s="3"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="28"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="3:7" ht="12.75">
       <c r="C34" s="3"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="28"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="3:7" ht="12.75">
       <c r="C35" s="3"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="28"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="3:7" ht="12.75">
       <c r="C36" s="3"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D37" s="29"/>
-      <c r="E37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D38" s="29"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D39" s="29"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D40" s="29"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D41" s="29"/>
-      <c r="E41" s="25"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D42" s="29"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D43" s="29"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D44" s="29"/>
-      <c r="E44" s="25"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D45" s="29"/>
-      <c r="E45" s="25"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D46" s="29"/>
-      <c r="E46" s="25"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D47" s="29"/>
-      <c r="E47" s="25"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D48" s="29"/>
-      <c r="E48" s="25"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D49" s="29"/>
-      <c r="E49" s="25"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1786,7 +1814,7 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2069,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5DFE2-6F8B-4134-98CB-00E93765900B}">
-  <dimension ref="B1:G40"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2082,119 +2110,106 @@
     <col min="8" max="8" width="111.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="G1" s="16"/>
-    </row>
     <row r="2" spans="2:7">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" ht="28.5">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="42.75">
       <c r="C8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="71.25">
       <c r="C9" s="15"/>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.25">
       <c r="C10" s="15"/>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>114</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="31" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="42.75">
       <c r="C11" s="15"/>
-      <c r="D11" s="37">
+      <c r="D11" s="35">
         <v>2</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="34" t="s">
         <v>115</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="C12" s="15"/>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>117</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="28.5">
       <c r="C13" s="15"/>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="34" t="s">
         <v>118</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="C14" s="15"/>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="3"/>
@@ -2205,10 +2220,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>0.5</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="3"/>
@@ -2219,10 +2234,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="22">
+      <c r="D16" s="20">
         <v>2</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="34" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="3"/>
@@ -2230,10 +2245,10 @@
     </row>
     <row r="17" spans="2:7" ht="14.25">
       <c r="C17" s="15"/>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>124</v>
       </c>
       <c r="F17" s="3"/>
@@ -2241,19 +2256,19 @@
     </row>
     <row r="18" spans="2:7" ht="14.25">
       <c r="C18" s="15"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="37" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="35" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="14.25">
-      <c r="C19" s="39"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="34" t="s">
         <v>125</v>
       </c>
       <c r="F19" s="3"/>
@@ -2264,8 +2279,8 @@
         <v>14</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
     </row>
@@ -2274,19 +2289,19 @@
         <v>27</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" ht="14.25">
       <c r="C22" s="15"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="34" t="s">
         <v>128</v>
       </c>
       <c r="F22" s="3"/>
@@ -2294,10 +2309,10 @@
     </row>
     <row r="23" spans="2:7" ht="14.25">
       <c r="C23" s="15"/>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="34" t="s">
         <v>130</v>
       </c>
       <c r="F23" s="3"/>
@@ -2305,10 +2320,10 @@
     </row>
     <row r="24" spans="2:7" ht="14.25">
       <c r="C24" s="15"/>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="34" t="s">
         <v>131</v>
       </c>
       <c r="F24" s="3"/>
@@ -2316,10 +2331,10 @@
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="C25" s="15"/>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="34" t="s">
         <v>132</v>
       </c>
       <c r="F25" s="3"/>
@@ -2327,99 +2342,372 @@
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="C26" s="15"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="C27" s="15"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="C28" s="15"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="C29" s="15"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="14.25">
       <c r="C30" s="3"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="14.25">
       <c r="C31" s="3"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="14.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" s="3"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="28"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" s="3"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="28"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="3"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="28"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="3"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="3:7">
-      <c r="D37" s="29"/>
-      <c r="E37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="3:7">
-      <c r="D38" s="29"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="3:7">
-      <c r="D39" s="29"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="3:7">
-      <c r="D40" s="29"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1113D406-4B2A-465B-82CA-FC8F190DAF4D}">
+  <dimension ref="B2:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" customWidth="1"/>
+    <col min="7" max="7" width="76.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5">
+      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5">
+      <c r="B13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5">
+      <c r="C14" s="3"/>
+      <c r="D14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5">
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" ht="16.5">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5">
+      <c r="C19" s="3"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.5">
+      <c r="C20" s="6"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5">
+      <c r="C22" s="3"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.5">
+      <c r="C23" s="3"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.5">
+      <c r="C24" s="3"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.5">
+      <c r="C25" s="3"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.5">
+      <c r="C26" s="3"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.5">
+      <c r="C27" s="3"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.5">
+      <c r="C28" s="3"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" ht="14.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" ht="14.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" ht="14.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" ht="14.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>